--- a/model/data_dictionary.xlsx
+++ b/model/data_dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokheira/Library/CloudStorage/GoogleDrive-jw7302@nyu.edu/My Drive/Baruch/CIS9440/Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokheira/Library/CloudStorage/GoogleDrive-jw7302@nyu.edu/My Drive/Baruch/CIS9440/Assignment/homework/model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9801BE-C834-7147-9783-4A326C0DD7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A15B67-3DA3-3544-94BB-D2781A985567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E9877C16-4BEB-FD40-9CFE-74DAEFB0EC74}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E100B4-C74A-424C-B11B-B051882A10D6}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,7 +915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
